--- a/industry_cluster_comparison.xlsx
+++ b/industry_cluster_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trading\ACP\ProjetFinance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE30E54-DFBB-4AFF-A332-A0A92ED82184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE0F32C-79C2-428C-8423-3E5A9AEA0149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1786,7 +1786,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K261" sqref="K261"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
